--- a/kategorije.xlsx
+++ b/kategorije.xlsx
@@ -542,7 +542,7 @@
       <selection activeCell="A3322" sqref="A3322"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="18.44140625" customWidth="1" min="2" max="2"/>

--- a/kategorije.xlsx
+++ b/kategorije.xlsx
@@ -542,7 +542,7 @@
       <selection activeCell="A3322" sqref="A3322"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="18.44140625" customWidth="1" min="2" max="2"/>
